--- a/ddt/my.xlsx
+++ b/ddt/my.xlsx
@@ -11,72 +11,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Homeowner Directory</t>
-  </si>
-  <si>
-    <t>LateFeeBaseAmount</t>
-  </si>
-  <si>
-    <t>LateFeeDailyAmount</t>
-  </si>
-  <si>
-    <t>DuesGraceDays</t>
-  </si>
-  <si>
-    <t>DuesGraceDayFixedDay</t>
-  </si>
-  <si>
-    <t>LateFeeGraceBalance</t>
-  </si>
-  <si>
-    <t>MaxDailyLateFeesAmount</t>
-  </si>
-  <si>
-    <t>IgnorePartialPayments</t>
-  </si>
-  <si>
-    <t>PurchaseDate</t>
-  </si>
-  <si>
-    <t>SaleDate</t>
-  </si>
-  <si>
-    <t>InsuranceCompanyName</t>
-  </si>
-  <si>
-    <t>InsuranceExpiration</t>
-  </si>
-  <si>
-    <t>InsurancePolicyNumber</t>
-  </si>
-  <si>
-    <t>LicensePlates</t>
-  </si>
-  <si>
-    <t>Pets</t>
-  </si>
-  <si>
-    <t>RenterLeaseStartDate</t>
-  </si>
-  <si>
-    <t>RenterLeaseEndDate</t>
-  </si>
-  <si>
-    <t>NsfFee</t>
-  </si>
-  <si>
-    <t>RequireOnlinePaymentsInFull</t>
-  </si>
-  <si>
-    <t>SelectedHomeownerId</t>
-  </si>
-  <si>
-    <t>OccupancyId</t>
-  </si>
-  <si>
-    <t>UnitId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>leasing_agent_performance</t>
+  </si>
+  <si>
+    <t>AssignedUser</t>
+  </si>
+  <si>
+    <t>GuestCards</t>
+  </si>
+  <si>
+    <t>Showings</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>LeasedUnits</t>
+  </si>
+  <si>
+    <t>AssignedUserID</t>
+  </si>
+  <si>
+    <t>owner_directory</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PhoneNumbers</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>AlternativePayee</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>LastPaymentDate</t>
+  </si>
+  <si>
+    <t>HoldPayments</t>
+  </si>
+  <si>
+    <t>OwnerPacketReports</t>
+  </si>
+  <si>
+    <t>SendOwnerPacketsByEmail</t>
+  </si>
+  <si>
+    <t>PropertiesOwned</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>OwnerAddress</t>
+  </si>
+  <si>
+    <t>LastPacketSent</t>
+  </si>
+  <si>
+    <t>OwnerStreet1</t>
+  </si>
+  <si>
+    <t>OwnerStreet2</t>
+  </si>
+  <si>
+    <t>OwnerCity</t>
+  </si>
+  <si>
+    <t>OwnerState</t>
+  </si>
+  <si>
+    <t>OwnerZip</t>
+  </si>
+  <si>
+    <t>OwnerCountry</t>
+  </si>
+  <si>
+    <t>OwnerId</t>
+  </si>
+  <si>
+    <t>PropertiesOwnedIDs</t>
+  </si>
+  <si>
+    <t>NotesForTheOwner</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -145,24 +175,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -400,32 +436,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -435,62 +471,62 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -500,202 +536,222 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73">
-      <c r="A73" s="5"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="6"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88">
-      <c r="A88" s="7"/>
+      <c r="A88" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/ddt/my.xlsx
+++ b/ddt/my.xlsx
@@ -11,109 +11,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>leasing_agent_performance</t>
-  </si>
-  <si>
-    <t>AssignedUser</t>
-  </si>
-  <si>
-    <t>GuestCards</t>
-  </si>
-  <si>
-    <t>Showings</t>
-  </si>
-  <si>
-    <t>Applications</t>
-  </si>
-  <si>
-    <t>LeasedUnits</t>
-  </si>
-  <si>
-    <t>AssignedUserID</t>
-  </si>
-  <si>
-    <t>owner_directory</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PhoneNumbers</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>AlternativePayee</t>
-  </si>
-  <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>LastPaymentDate</t>
-  </si>
-  <si>
-    <t>HoldPayments</t>
-  </si>
-  <si>
-    <t>OwnerPacketReports</t>
-  </si>
-  <si>
-    <t>SendOwnerPacketsByEmail</t>
-  </si>
-  <si>
-    <t>PropertiesOwned</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>OwnerAddress</t>
-  </si>
-  <si>
-    <t>LastPacketSent</t>
-  </si>
-  <si>
-    <t>OwnerStreet1</t>
-  </si>
-  <si>
-    <t>OwnerStreet2</t>
-  </si>
-  <si>
-    <t>OwnerCity</t>
-  </si>
-  <si>
-    <t>OwnerState</t>
-  </si>
-  <si>
-    <t>OwnerZip</t>
-  </si>
-  <si>
-    <t>OwnerCountry</t>
-  </si>
-  <si>
-    <t>OwnerId</t>
-  </si>
-  <si>
-    <t>PropertiesOwnedIDs</t>
-  </si>
-  <si>
-    <t>NotesForTheOwner</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>property_budget</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>MaintenanceLimit</t>
+  </si>
+  <si>
+    <t>MaintenanceNotes</t>
+  </si>
+  <si>
+    <t>SiteManagerName</t>
+  </si>
+  <si>
+    <t>SiteManagerPhoneNumber</t>
+  </si>
+  <si>
+    <t>ManagementFeeType</t>
+  </si>
+  <si>
+    <t>LeaseFeeType</t>
+  </si>
+  <si>
+    <t>LeaseFlatFee</t>
+  </si>
+  <si>
+    <t>LeaseFeePercent</t>
+  </si>
+  <si>
+    <t>OwnerPaymentType</t>
+  </si>
+  <si>
+    <t>PropertyType</t>
+  </si>
+  <si>
+    <t>PropertyCreatedOn</t>
+  </si>
+  <si>
+    <t>PropertyCreatedBy</t>
+  </si>
+  <si>
+    <t>LateFeeType</t>
+  </si>
+  <si>
+    <t>LateFeeBaseAmount</t>
+  </si>
+  <si>
+    <t>LateFeeDailyAmount</t>
+  </si>
+  <si>
+    <t>LateFeeGracePeriod</t>
+  </si>
+  <si>
+    <t>LateFeeGracePeriodFixedDay</t>
+  </si>
+  <si>
+    <t>LateFeeGraceBalance</t>
+  </si>
+  <si>
+    <t>MaxDailyLateFeesAmount</t>
+  </si>
+  <si>
+    <t>IgnorePartialPayments</t>
+  </si>
+  <si>
+    <t>YearBuilt</t>
+  </si>
+  <si>
+    <t>ContractExpirations</t>
+  </si>
+  <si>
+    <t>ManagementStartDate</t>
+  </si>
+  <si>
+    <t>ManagementEndDate</t>
+  </si>
+  <si>
+    <t>ManagementEndReason</t>
+  </si>
+  <si>
+    <t>AgentOfRecord</t>
+  </si>
+  <si>
+    <t>PropertyClass</t>
+  </si>
+  <si>
+    <t>OnlineMaintenanceRequestInstructions</t>
+  </si>
+  <si>
+    <t>Amenities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -128,24 +125,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -175,14 +161,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -190,15 +176,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -436,32 +413,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -471,52 +448,52 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -526,232 +503,230 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="3"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="3"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="3"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="4"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="7"/>
+      <c r="A72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="3"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="3"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="3"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="3"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="3"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="3"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="3"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="3"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="3"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="8"/>
+      <c r="A87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="9"/>
+      <c r="A88" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/ddt/my.xlsx
+++ b/ddt/my.xlsx
@@ -11,99 +11,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>property_budget</t>
-  </si>
-  <si>
-    <t>Visibility</t>
-  </si>
-  <si>
-    <t>MaintenanceLimit</t>
-  </si>
-  <si>
-    <t>MaintenanceNotes</t>
-  </si>
-  <si>
-    <t>SiteManagerName</t>
-  </si>
-  <si>
-    <t>SiteManagerPhoneNumber</t>
-  </si>
-  <si>
-    <t>ManagementFeeType</t>
-  </si>
-  <si>
-    <t>LeaseFeeType</t>
-  </si>
-  <si>
-    <t>LeaseFlatFee</t>
-  </si>
-  <si>
-    <t>LeaseFeePercent</t>
-  </si>
-  <si>
-    <t>OwnerPaymentType</t>
-  </si>
-  <si>
-    <t>PropertyType</t>
-  </si>
-  <si>
-    <t>PropertyCreatedOn</t>
-  </si>
-  <si>
-    <t>PropertyCreatedBy</t>
-  </si>
-  <si>
-    <t>LateFeeType</t>
-  </si>
-  <si>
-    <t>LateFeeBaseAmount</t>
-  </si>
-  <si>
-    <t>LateFeeDailyAmount</t>
-  </si>
-  <si>
-    <t>LateFeeGracePeriod</t>
-  </si>
-  <si>
-    <t>LateFeeGracePeriodFixedDay</t>
-  </si>
-  <si>
-    <t>LateFeeGraceBalance</t>
-  </si>
-  <si>
-    <t>MaxDailyLateFeesAmount</t>
-  </si>
-  <si>
-    <t>IgnorePartialPayments</t>
-  </si>
-  <si>
-    <t>YearBuilt</t>
-  </si>
-  <si>
-    <t>ContractExpirations</t>
-  </si>
-  <si>
-    <t>ManagementStartDate</t>
-  </si>
-  <si>
-    <t>ManagementEndDate</t>
-  </si>
-  <si>
-    <t>ManagementEndReason</t>
-  </si>
-  <si>
-    <t>AgentOfRecord</t>
-  </si>
-  <si>
-    <t>PropertyClass</t>
-  </si>
-  <si>
-    <t>OnlineMaintenanceRequestInstructions</t>
-  </si>
-  <si>
-    <t>Amenities</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+  <si>
+    <t>rentable_items</t>
+  </si>
+  <si>
+    <t>RentableItemName</t>
+  </si>
+  <si>
+    <t>GLAccount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>PropertyId</t>
+  </si>
+  <si>
+    <t>PropertyAddress</t>
+  </si>
+  <si>
+    <t>PropertyStreet1</t>
+  </si>
+  <si>
+    <t>PropertyStreet2</t>
+  </si>
+  <si>
+    <t>PropertyCity</t>
+  </si>
+  <si>
+    <t>PropertyState</t>
+  </si>
+  <si>
+    <t>PropertyZip</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>OccupancyId</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>GLAccountId</t>
+  </si>
+  <si>
+    <t>LicensePlates</t>
+  </si>
+  <si>
+    <t>rentalllll</t>
+  </si>
+  <si>
+    <t>Previous2Address2</t>
+  </si>
+  <si>
+    <t>PreviousCity2</t>
+  </si>
+  <si>
+    <t>PreviousState2</t>
+  </si>
+  <si>
+    <t>PreviousZip2</t>
+  </si>
+  <si>
+    <t>PreviousMonthlyRent2</t>
+  </si>
+  <si>
+    <t>PreviousResidedFrom2</t>
+  </si>
+  <si>
+    <t>PreviousResidedTo2</t>
+  </si>
+  <si>
+    <t>PreviousLandlordName2</t>
+  </si>
+  <si>
+    <t>PreviousLandlordPhoneNumber2</t>
+  </si>
+  <si>
+    <t>PreviousLandlordEmail2</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>EmployerPhoneNumber</t>
+  </si>
+  <si>
+    <t>MonthlySalary</t>
+  </si>
+  <si>
+    <t>PositionHeld</t>
+  </si>
+  <si>
+    <t>YearsWorked</t>
+  </si>
+  <si>
+    <t>AdditionalIncomes</t>
+  </si>
+  <si>
+    <t>PetsNames</t>
+  </si>
+  <si>
+    <t>PetsKinds</t>
+  </si>
+  <si>
+    <t>PetsWeights</t>
+  </si>
+  <si>
+    <t>UnitAddress</t>
+  </si>
+  <si>
+    <t>UnitStreet1</t>
+  </si>
+  <si>
+    <t>UnitStreet2</t>
+  </si>
+  <si>
+    <t>UnitCity</t>
+  </si>
+  <si>
+    <t>UnitState</t>
+  </si>
+  <si>
+    <t>UnitZip</t>
+  </si>
+  <si>
+    <t>TenantId</t>
   </si>
 </sst>
 </file>
@@ -161,12 +221,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -177,10 +240,13 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -413,320 +479,364 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
+      <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="3"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="4"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
+      <c r="A82" s="5"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="5"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88">
-      <c r="A88" s="6"/>
+      <c r="A88" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/ddt/my.xlsx
+++ b/ddt/my.xlsx
@@ -11,141 +11,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
-  <si>
-    <t>rentable_items</t>
-  </si>
-  <si>
-    <t>RentableItemName</t>
-  </si>
-  <si>
-    <t>GLAccount</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+  <si>
+    <t>unit_turn_detail</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>UnitTurnId</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ReferenceUser</t>
+  </si>
+  <si>
+    <t>MoveOutDate</t>
+  </si>
+  <si>
+    <t>TurnEndDate</t>
+  </si>
+  <si>
+    <t>TargetDaysToComplete</t>
+  </si>
+  <si>
+    <t>TotalDaysToComplete</t>
+  </si>
+  <si>
+    <t>LaborFromWorkOrders</t>
+  </si>
+  <si>
+    <t>PurchaseOrdersFromWorkOrders</t>
+  </si>
+  <si>
+    <t>BillablesFromWorkOrders</t>
+  </si>
+  <si>
+    <t>InventoryFromWorkOrders</t>
+  </si>
+  <si>
+    <t>TotalBilled</t>
+  </si>
+  <si>
+    <t>PropertyId</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>unit_vacancy.......</t>
+  </si>
+  <si>
+    <t>UnitTags</t>
+  </si>
+  <si>
+    <t>BedAndBath</t>
+  </si>
+  <si>
+    <t>SqFt</t>
+  </si>
+  <si>
+    <t>UnitStatus</t>
+  </si>
+  <si>
+    <t>RentReady</t>
+  </si>
+  <si>
+    <t>DaysVacant</t>
+  </si>
+  <si>
+    <t>LastRent</t>
+  </si>
+  <si>
+    <t>SchdRent</t>
+  </si>
+  <si>
+    <t>NewRent</t>
+  </si>
+  <si>
+    <t>LastMoveIn</t>
+  </si>
+  <si>
+    <t>LastMoveOut</t>
+  </si>
+  <si>
+    <t>AvailableOn</t>
+  </si>
+  <si>
+    <t>NextMoveIn</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Property</t>
+    <t>AdvertisedRent</t>
+  </si>
+  <si>
+    <t>PostedToWebsite</t>
+  </si>
+  <si>
+    <t>PostedToInternet</t>
   </si>
   <si>
     <t>PropertyName</t>
   </si>
   <si>
-    <t>PropertyId</t>
-  </si>
-  <si>
-    <t>PropertyAddress</t>
-  </si>
-  <si>
-    <t>PropertyStreet1</t>
-  </si>
-  <si>
-    <t>PropertyStreet2</t>
-  </si>
-  <si>
-    <t>PropertyCity</t>
-  </si>
-  <si>
-    <t>PropertyState</t>
-  </si>
-  <si>
-    <t>PropertyZip</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>OccupancyId</t>
-  </si>
-  <si>
-    <t>UnitId</t>
-  </si>
-  <si>
-    <t>GLAccountId</t>
-  </si>
-  <si>
-    <t>LicensePlates</t>
-  </si>
-  <si>
-    <t>rentalllll</t>
-  </si>
-  <si>
-    <t>Previous2Address2</t>
-  </si>
-  <si>
-    <t>PreviousCity2</t>
-  </si>
-  <si>
-    <t>PreviousState2</t>
-  </si>
-  <si>
-    <t>PreviousZip2</t>
-  </si>
-  <si>
-    <t>PreviousMonthlyRent2</t>
-  </si>
-  <si>
-    <t>PreviousResidedFrom2</t>
-  </si>
-  <si>
-    <t>PreviousResidedTo2</t>
-  </si>
-  <si>
-    <t>PreviousLandlordName2</t>
-  </si>
-  <si>
-    <t>PreviousLandlordPhoneNumber2</t>
-  </si>
-  <si>
-    <t>PreviousLandlordEmail2</t>
-  </si>
-  <si>
-    <t>EmployerName</t>
-  </si>
-  <si>
-    <t>EmployerPhoneNumber</t>
-  </si>
-  <si>
-    <t>MonthlySalary</t>
-  </si>
-  <si>
-    <t>PositionHeld</t>
-  </si>
-  <si>
-    <t>YearsWorked</t>
-  </si>
-  <si>
-    <t>AdditionalIncomes</t>
-  </si>
-  <si>
-    <t>PetsNames</t>
-  </si>
-  <si>
-    <t>PetsKinds</t>
-  </si>
-  <si>
-    <t>PetsWeights</t>
-  </si>
-  <si>
-    <t>UnitAddress</t>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>UnitStreet1</t>
@@ -163,7 +142,16 @@
     <t>UnitZip</t>
   </si>
   <si>
-    <t>TenantId</t>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>AmenitiesPrice</t>
+  </si>
+  <si>
+    <t>ComputedMarketRent</t>
+  </si>
+  <si>
+    <t>ReadyForShowingOn</t>
   </si>
 </sst>
 </file>
@@ -179,11 +167,11 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,8 +182,13 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -225,28 +218,28 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -549,192 +542,188 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
+      <c r="A19" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>21</v>
+      <c r="A51" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="7"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="7"/>
